--- a/dist/pdf/python/Author-python.xlsx
+++ b/dist/pdf/python/Author-python.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>author</t>
   </si>
@@ -22,64 +22,85 @@
     <t>链接</t>
   </si>
   <si>
-    <t>Oliphant, Travis Eaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>https://www.zhihu.com/topic/19552832</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_28901391/article/details/78123316</t>
-  </si>
-  <si>
-    <t>https://www.exploit-db.com/ghdb/5736</t>
-  </si>
-  <si>
-    <t>https://zhuanlan.zhihu.com/p/33078620</t>
-  </si>
-  <si>
-    <t>https://www.runoob.com/python/att-string-index.html</t>
-  </si>
-  <si>
-    <t>http://mirrors.sohu.com/python/3.6.3/</t>
-  </si>
-  <si>
-    <t>https://www.runoob.com/python/att-dictionary-items.html</t>
-  </si>
-  <si>
-    <t>https://pypi.org/project/QtPy/</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/Python</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/shwee/p/9427975.html</t>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>https://xs.glgoo.99lb.net/scholar?hl=zh-CN&amp;as_sdt=0%2C5&amp;q=author%3A%22hello%22+intext%3A%22python%22&amp;btnG=</t>
+  </si>
+  <si>
+    <t>http://www.escm.eu.org/eccm16/assets/0423.pdf</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Yordan_Kyosev/publication/281523948_DETERMINATION_OF_THE_MECHANICAL_PROPERTIES_OF_BRAIDED_COMPOSITE_BEAMS_WITH_EXPERIMENTAL_AND_NUMERICAL_METHODS/links/58643e1d08ae8fce490b73d0/DETERMINATION-OF-THE-MECHANICAL-PROPERTIES-OF-BRAIDED-COMPOSITE-BEAMS-WITH-EXPERIMENTAL-AND-NUMERICAL-METHODS.pdf</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Rachel_Marschang/publication/281982177_What's_New_in_the_Scientific_Literature_Infectious_Diseases_of_Reptiles_Peer-reviewed_publications_January_2014-January_2015/links/56cc604208aee3cee5436f46/Whats-New-in-the-Scientific-Literature-Infectious-Diseases-of-Reptiles-Peer-reviewed-publications-January-2014-January-2015.pdf</t>
+  </si>
+  <si>
+    <t>https://aem.asm.org/content/82/8/2516.short</t>
+  </si>
+  <si>
+    <t>https://sciencedirect.xilesou.top/science/article/pii/S0378113513003854</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/articles/10.3389/fmicb.2019.02413/abstract</t>
+  </si>
+  <si>
+    <t>http://media-podcast.open.ac.uk/feeds/b324-marketing/transcript/b324marketing03_00555_6761.pdf</t>
+  </si>
+  <si>
+    <t>https://www.worldscientific.com/doi/abs/10.1142/9789812834300_0040</t>
+  </si>
+  <si>
+    <t>https://hal-pasteur.archives-ouvertes.fr/pasteur-02048185/</t>
+  </si>
+  <si>
+    <t>Oliphant, Travis</t>
+  </si>
+  <si>
+    <t>https://xs.glgoo.99lb.net/scholar?hl=zh-CN&amp;as_sdt=0%2C5&amp;q=author%3A%22Oliphant%2C+Travis%22+intext%3A%22python%22&amp;btnG=</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.xilesou.top/abstract/document/4160250/</t>
+  </si>
+  <si>
+    <t>http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.476.2204&amp;rep=rep1&amp;type=pdf</t>
+  </si>
+  <si>
+    <t>https://www.scienceopen.com/document?vid=ab12905a-8a5b-43d8-a2bb-defc771410b9</t>
+  </si>
+  <si>
+    <t>https://www.nature.xilesou.top/articles/s41592-019-0686-2?es_p=11046330</t>
+  </si>
+  <si>
+    <t>https://www.scienceopen.com/document?vid=81ae2602-ca28-464a-b7d9-1514a433b55c</t>
   </si>
   <si>
     <t>Lutz, Mark</t>
   </si>
   <si>
-    <t>https://blog.csdn.net/jinxiaonian11/article/details/83542696</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/kaid/p/7992240.html</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/sxyyu1/article/details/81366526</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/whaoxysh/article/details/22295317</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/328356/extracting-text-from-html-file-using-python</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/cnmilan/article/details/8727308</t>
-  </si>
-  <si>
-    <t>https://www.thefreedictionary.com/Intext</t>
-  </si>
-  <si>
-    <t>https://www.cnblogs.com/zhangxinqi/p/9201594.html</t>
+    <t>https://xs.glgoo.99lb.net/scholar?hl=zh-CN&amp;as_sdt=0%2C5&amp;q=author%3A%22Lutz%2C+Mark%22+intext%3A%22python%22&amp;btnG=</t>
+  </si>
+  <si>
+    <t>https://xs.glgoo.99lb.net/books?hl=zh-CN&amp;lr=&amp;id=c8pV-TzyfBUC&amp;oi=fnd&amp;pg=PR11&amp;dq=%22Lutz,+Mark%22+intext:%22python%22&amp;ots=n4bDbLUVRU&amp;sig=3_-R4-80n9AVzacUKNNggMrTIUE</t>
+  </si>
+  <si>
+    <t>https://xs.glgoo.99lb.net/books?hl=zh-CN&amp;lr=&amp;id=ePyeNz2Eoy8C&amp;oi=fnd&amp;pg=PP1&amp;dq=%22Lutz,+Mark%22+intext:%22python%22&amp;ots=MbB8eG2fvi&amp;sig=XuAlil76AoJLXKGV8YxkuYRB1SA</t>
+  </si>
+  <si>
+    <t>https://xs.glgoo.99lb.net/books?hl=zh-CN&amp;lr=&amp;id=qtdkAgAAQBAJ&amp;oi=fnd&amp;pg=PR5&amp;dq=%22Lutz,+Mark%22+intext:%22python%22&amp;ots=b2SsJsidDY&amp;sig=jFgUh__UcOAm2JvPyZxNQyOh0MI</t>
+  </si>
+  <si>
+    <t>https://xs.glgoo.99lb.net/books?hl=zh-CN&amp;lr=&amp;id=5fujAgAAQBAJ&amp;oi=fnd&amp;pg=PP1&amp;dq=%22Lutz,+Mark%22+intext:%22python%22&amp;ots=w0O7h76JVC&amp;sig=mfGfm2hH60_A35Ps5vwuwp_sa_8</t>
+  </si>
+  <si>
+    <t>http://weblibrary.apeiron-uni.eu:8080/WebDokumenti/6272-Team%20LiB.pdf</t>
+  </si>
+  <si>
+    <t>https://xs.glgoo.99lb.net/books?hl=zh-CN&amp;lr=&amp;id=gMBdvVktho4C&amp;oi=fnd&amp;pg=PR5&amp;dq=%22Lutz,+Mark%22+intext:%22python%22&amp;ots=V90JR2vJoa&amp;sig=cXCGk7mO9tTpUR3LJiQhBpuDTQY</t>
+  </si>
+  <si>
+    <t>https://xs.glgoo.99lb.net/books?hl=zh-CN&amp;lr=&amp;id=ZPnvHMmcrEoC&amp;oi=fnd&amp;pg=PR15&amp;dq=%22Lutz,+Mark%22+intext:%22python%22&amp;ots=0nzq4Zfybp&amp;sig=R5k_xaXmP5XH-rDseWZ74fnc_eU</t>
   </si>
 </sst>
 </file>
@@ -428,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -509,47 +530,70 @@
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -574,6 +618,10 @@
     <hyperlink ref="B19" r:id="rId18"/>
     <hyperlink ref="B20" r:id="rId19"/>
     <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
